--- a/CashFlow/XPO_cashflow.xlsx
+++ b/CashFlow/XPO_cashflow.xlsx
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>69000000.0</v>
+        <v>4177000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-72000000.0</v>
+        <v>4079000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-321000000.0</v>
+        <v>2977000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-155000000.0</v>
+        <v>2095000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-93000000.0</v>
+        <v>1031000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-162000000.0</v>
